--- a/templates/samples-bulk.xlsx
+++ b/templates/samples-bulk.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Groupdir/SUN-CPR-genomics-users/DIRECT-SEQUENCING-SUBMISSION/Templates_DO_NOT_OPEN_ONLY_COPY_THE_FILES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vzr191/Seafile/reNEW/GENERAL/2023-12-14_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{07C0C623-B566-8149-BF8F-BEA5BB154ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD10DA1A-74CC-43C1-AED6-B9B194966EEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F218A7E-9332-EB44-ABF8-7038F69CB5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22420" windowHeight="22500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
+    <sheet name="species" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="pipeline" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="dedup" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,6 +49,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Adrija Kalvisa</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D235BD0C-91B8-48D2-AAB8-CA8967276C62}">
@@ -53,53 +57,299 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>this column forms basename for .fastq files
-example:
-abc_1 --&gt; abc_1_S1.fastq.gz
-def_2 --&gt; def_2_S2.fastq.gz
-NAMIING RULES:
-1. Use only letters, numbers, '-' and '_'
-2. No spaces, special characters (#, +, -, % or other funny things)
-3. Start with a letter NOT number (for R data processing reasons)</t>
+          </rPr>
+          <t xml:space="preserve">this column forms basename for .fastq files
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">example:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">abc_1 --&gt; abc_1_S1.fastq.gz
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">def_2 --&gt; def_2_S2.fastq.gz
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">NAMIING RULES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. Use only letters, numbers, '-' and '_'
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. No spaces, special characters (#, +, -, % or other funny things)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>3. Start with a letter NOT number (for R data processing reasons)</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1DD8186B-34E6-475E-8EE2-82DE7A6BDB5E}">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{AB5705E4-B662-3B4B-867D-91981454B349}">
       <text>
-        <t/>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>also called index1 in the samplesheet.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DDE66B82-E8EA-4A48-965B-47C6B1A3EA6F}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{561A46B8-9F9D-8E44-8EF1-3EE8195959B8}">
       <text>
         <r>
           <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>sequence of the Index2</t>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>also called index2 in the samplesheet</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CD50C20C-C521-46B5-A6BE-4AE92FE29D0D}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CD50C20C-C521-46B5-A6BE-4AE92FE29D0D}">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>when this is your project and you have prepared all samples and libraries, you just put your firstname
-when the pool is a merge of several libraries prepared by different people, or your prepared libraries from sets of samples coming from different people, please write the firstname of these people so we know which is which</t>
+          </rPr>
+          <t xml:space="preserve">when this is your project and you have prepared all samples and libraries, you just put your firstname
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>when the pool is a merge of several libraries prepared by different people, or your prepared libraries from sets of samples coming from different people, please write the firstname of these people so we know which is which</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{0C1FC85A-1273-5644-90D5-905A6BFA1583}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is for the main genome. If you have spik-ins, you can add columns.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{6D2DB146-0537-EC47-BB01-3684A0485B0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of the pipelines we can run. If you don't need a pipeline, please select FASTQ. If what you need is not in the list, please contact us.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{87699265-773F-8443-ABBD-150CD975E8F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In some cases (e.g. CHOR/SCAR/CHIP), we can run a UMI-aware pipeline. In this case, you can select with_UMI.</t>
         </r>
       </text>
     </comment>
@@ -108,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -125,9 +375,6 @@
     <t>contact</t>
   </si>
   <si>
-    <t>split</t>
-  </si>
-  <si>
     <t>Line1_Cond1_WT_rep1</t>
   </si>
   <si>
@@ -137,15 +384,9 @@
     <t>TAAGATTA</t>
   </si>
   <si>
-    <t>Mus musculus</t>
-  </si>
-  <si>
     <t>person1</t>
   </si>
   <si>
-    <t>CHOR_mm</t>
-  </si>
-  <si>
     <t>Line1_Cond1_WT_rep2</t>
   </si>
   <si>
@@ -176,15 +417,9 @@
     <t>GCCTCTAT</t>
   </si>
   <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
     <t>person2</t>
   </si>
   <si>
-    <t>SCAR_hg</t>
-  </si>
-  <si>
     <t>Line1_Cond2_WT_rep1</t>
   </si>
   <si>
@@ -216,13 +451,76 @@
   </si>
   <si>
     <t>https://sundgenomics.github.io/demux/</t>
+  </si>
+  <si>
+    <t>ATAC</t>
+  </si>
+  <si>
+    <t>CELL-RANGER</t>
+  </si>
+  <si>
+    <t>CHOR</t>
+  </si>
+  <si>
+    <t>CRISPR</t>
+  </si>
+  <si>
+    <t>FASTQ</t>
+  </si>
+  <si>
+    <t>NF-METHYL</t>
+  </si>
+  <si>
+    <t>REPEATS</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>CUT-RUN</t>
+  </si>
+  <si>
+    <t>pipeline</t>
+  </si>
+  <si>
+    <t>hg</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>yeast</t>
+  </si>
+  <si>
+    <t>pombe-h90</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>dedup</t>
+  </si>
+  <si>
+    <t>with_UMI</t>
+  </si>
+  <si>
+    <t>no_UMI</t>
+  </si>
+  <si>
+    <t>Please do not change the existing columns, their names.</t>
+  </si>
+  <si>
+    <t>Feel free to add any columns that you need.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +542,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -557,19 +874,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,275 +895,466 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97D7634A-4958-2A4A-AAC0-131E2CE516EA}">
+          <x14:formula1>
+            <xm:f>pipeline!$A$1:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6ACCD978-EFA0-2040-9AAB-00BA8193909C}">
+          <x14:formula1>
+            <xm:f>species!$A$1:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F6E375B-B01C-E547-8B3D-E87931E2E87A}">
+          <x14:formula1>
+            <xm:f>dedup!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9769103-B69E-8B41-A05D-CDF828F1CDEB}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="95.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="95.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="16.5">
+    <row r="2" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="48.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="16.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="16.5">
-      <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{3D703A93-9A1D-40C0-9E87-04B465EC9115}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{3D703A93-9A1D-40C0-9E87-04B465EC9115}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E5A63B-6044-B349-9D2C-C8F8C641BE0D}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964A680A-79A6-C84A-BB8C-CAC114720DF5}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B456E7D-5CFF-3B43-8B46-8F9CC3B71F05}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b">
@@ -858,6 +1364,15 @@
     <TaxCatchAll xmlns="5795b8a2-0df7-4793-b5f3-596dc329b202" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,13 +1605,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E226-2F2A-42E2-9F23-09B4291EA6FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A130457-9E9E-4BA0-9555-1742FD5A23F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
+    <ds:schemaRef ds:uri="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A130457-9E9E-4BA0-9555-1742FD5A23F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E226-2F2A-42E2-9F23-09B4291EA6FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B7F067-B8CE-4767-B324-CBF454811A43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B7F067-B8CE-4767-B324-CBF454811A43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
+    <ds:schemaRef ds:uri="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6a2630e2-1ac5-455e-8217-0156b1936a76}" enabled="1" method="Standard" siteId="{a3927f91-cda1-4696-af89-8c9f1ceffa91}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/templates/samples-bulk.xlsx
+++ b/templates/samples-bulk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vzr191/Seafile/reNEW/GENERAL/2023-12-14_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vzr191/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F218A7E-9332-EB44-ABF8-7038F69CB5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2050A9-4C62-694D-8E92-2E76F8BBF7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22420" windowHeight="22500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22420" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>Feel free to add any columns that you need.</t>
+  </si>
+  <si>
+    <t>CRISPRESSO2</t>
   </si>
 </sst>
 </file>
@@ -1143,12 +1146,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97D7634A-4958-2A4A-AAC0-131E2CE516EA}">
-          <x14:formula1>
-            <xm:f>pipeline!$A$1:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6ACCD978-EFA0-2040-9AAB-00BA8193909C}">
           <x14:formula1>
             <xm:f>species!$A$1:$A$6</xm:f>
@@ -1160,6 +1157,12 @@
             <xm:f>dedup!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97D7634A-4958-2A4A-AAC0-131E2CE516EA}">
+          <x14:formula1>
+            <xm:f>pipeline!$A$1:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1269,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964A680A-79A6-C84A-BB8C-CAC114720DF5}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,26 +1302,31 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1367,15 +1375,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015BC63EE602A9B4B90EAFA524706E7EC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e71e259b67e8aef2a215662cb8c9d8ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="344093a9-d904-4ffb-8b7b-de0b820fd76b" xmlns:ns3="5795b8a2-0df7-4793-b5f3-596dc329b202" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2507f855b6b64d912e69c4e78152a43" ns2:_="" ns3:_="">
     <xsd:import namespace="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
@@ -1604,6 +1603,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A130457-9E9E-4BA0-9555-1742FD5A23F8}">
   <ds:schemaRefs>
@@ -1616,14 +1624,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E226-2F2A-42E2-9F23-09B4291EA6FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B7F067-B8CE-4767-B324-CBF454811A43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1642,6 +1642,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E226-2F2A-42E2-9F23-09B4291EA6FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6a2630e2-1ac5-455e-8217-0156b1936a76}" enabled="1" method="Standard" siteId="{a3927f91-cda1-4696-af89-8c9f1ceffa91}" contentBits="0" removed="0"/>

--- a/templates/samples-bulk.xlsx
+++ b/templates/samples-bulk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vzr191/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vzr191/local/bitbucket/snippets/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2050A9-4C62-694D-8E92-2E76F8BBF7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A900BC16-C196-A743-8B68-843F9CA165E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22420" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="22420" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -468,18 +468,6 @@
     <t>FASTQ</t>
   </si>
   <si>
-    <t>NF-METHYL</t>
-  </si>
-  <si>
-    <t>REPEATS</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>CUT-RUN</t>
-  </si>
-  <si>
     <t>pipeline</t>
   </si>
   <si>
@@ -517,6 +505,27 @@
   </si>
   <si>
     <t>CRISPRESSO2</t>
+  </si>
+  <si>
+    <t>CHIP-CHOR-SCAR</t>
+  </si>
+  <si>
+    <t>NF-CHIP</t>
+  </si>
+  <si>
+    <t>NF-CUTANDRUN</t>
+  </si>
+  <si>
+    <t>NF-RNASEQ</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>NF-METHYLSEQ</t>
+  </si>
+  <si>
+    <t>CUTRUN-CUTTAG</t>
   </si>
 </sst>
 </file>
@@ -904,10 +913,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -924,13 +933,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -947,13 +956,13 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -970,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -993,13 +1002,13 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1016,13 +1025,13 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,13 +1048,13 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1062,13 +1071,13 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1085,13 +1094,13 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1108,13 +1117,13 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1131,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1169,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97D7634A-4958-2A4A-AAC0-131E2CE516EA}">
           <x14:formula1>
-            <xm:f>pipeline!$A$1:$A$10</xm:f>
+            <xm:f>pipeline!$A$1:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
@@ -1198,12 +1207,12 @@
     </row>
     <row r="5" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -1236,32 +1245,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1272,11 +1281,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964A680A-79A6-C84A-BB8C-CAC114720DF5}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1292,7 +1299,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1302,12 +1309,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1317,17 +1324,27 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1348,12 +1365,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1363,15 +1380,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Comment xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b" xsi:nil="true"/>
-    <TaxCatchAll xmlns="5795b8a2-0df7-4793-b5f3-596dc329b202" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1604,21 +1618,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Comment xmlns="344093a9-d904-4ffb-8b7b-de0b820fd76b" xsi:nil="true"/>
+    <TaxCatchAll xmlns="5795b8a2-0df7-4793-b5f3-596dc329b202" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A130457-9E9E-4BA0-9555-1742FD5A23F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E226-2F2A-42E2-9F23-09B4291EA6FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
-    <ds:schemaRef ds:uri="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1643,9 +1657,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E226-2F2A-42E2-9F23-09B4291EA6FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A130457-9E9E-4BA0-9555-1742FD5A23F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="344093a9-d904-4ffb-8b7b-de0b820fd76b"/>
+    <ds:schemaRef ds:uri="5795b8a2-0df7-4793-b5f3-596dc329b202"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
